--- a/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
+++ b/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshb11/main/Grad_Research/CM/project-pareto/pareto/case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\models_extra\CM_module\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98797434-9313-C348-ABDA-34D85CDFBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF59011-AF83-45F6-B50D-CC4BF40B499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="51" activeTab="60" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="46" activeTab="48" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId4"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId5"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId6"/>
-    <sheet name="FreshwaterSources" sheetId="35" r:id="rId7"/>
+    <sheet name="ExternalWaterSources" sheetId="35" r:id="rId7"/>
     <sheet name="WaterQualityComponents" sheetId="123" r:id="rId8"/>
     <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
     <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
@@ -53,15 +53,15 @@
     <sheet name="InitialPipelineCapacity" sheetId="109" r:id="rId38"/>
     <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId39"/>
     <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId40"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId41"/>
+    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId41"/>
     <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId42"/>
     <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId43"/>
     <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId44"/>
     <sheet name="StorageCost" sheetId="120" r:id="rId45"/>
     <sheet name="StorageWithdrawalRevenue" sheetId="121" r:id="rId46"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId47"/>
+    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId47"/>
     <sheet name="BeneficialReuseCost" sheetId="124" r:id="rId48"/>
-    <sheet name="BeneficialReuseRevenue" sheetId="125" r:id="rId49"/>
+    <sheet name="BeneficialReuseCredit" sheetId="125" r:id="rId49"/>
     <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId50"/>
     <sheet name="TruckingTime" sheetId="7" r:id="rId51"/>
     <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId52"/>
@@ -1606,253 +1606,11 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
       <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="WaterQualityComponents"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="FNA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="InitialStorageLevel"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="StorageCost"/>
-      <sheetName val="StorageWithdrawalRevenue"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="BeneficialReuseCost"/>
-      <sheetName val="BeneficialReuseRevenue"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="MinResidualQuality"/>
-      <sheetName val="ComponentPrice"/>
-      <sheetName val="ComponentTreatment"/>
-      <sheetName val="TimeDiscretization"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2162,15 +1920,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2182,7 +1940,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -2196,7 +1954,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2208,7 +1966,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -2222,7 +1980,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -2236,7 +1994,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2250,7 +2008,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2264,7 +2022,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2278,7 +2036,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2292,7 +2050,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2304,7 +2062,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2318,7 +2076,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2332,7 +2090,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2344,7 +2102,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2358,7 +2116,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2372,7 +2130,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2386,7 +2144,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2400,7 +2158,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2412,7 +2170,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2424,7 +2182,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2440,7 +2198,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2452,7 +2210,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2468,7 +2226,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2484,7 +2242,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2500,7 +2258,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2516,7 +2274,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2532,7 +2290,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2548,7 +2306,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2564,7 +2322,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2580,7 +2338,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2599,7 +2357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2615,7 +2373,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2631,7 +2389,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2647,7 +2405,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2663,7 +2421,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2679,7 +2437,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2724,30 +2482,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
     <col min="6" max="13" width="9.33203125" style="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -2755,20 +2513,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -2789,30 +2547,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
     <col min="6" max="13" width="9.33203125" style="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
@@ -2820,137 +2578,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -2971,18 +2729,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -3072,7 +2830,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -3107,7 +2865,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -3142,7 +2900,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -3177,7 +2935,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -3212,7 +2970,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -3249,7 +3007,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -3284,7 +3042,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -3319,7 +3077,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -3354,7 +3112,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3147,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -3424,7 +3182,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -3459,7 +3217,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -3494,7 +3252,7 @@
       </c>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -3529,7 +3287,7 @@
       </c>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -3583,18 +3341,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -3684,7 +3442,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -3720,7 +3478,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -3756,7 +3514,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -3808,18 +3566,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -3833,7 +3591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -3841,7 +3599,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -3849,7 +3607,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -3874,18 +3632,18 @@
       <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -3975,7 +3733,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -4010,7 +3768,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -4049,7 +3807,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -4086,7 +3844,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -4123,7 +3881,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -4160,7 +3918,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -4198,7 +3956,7 @@
       <c r="AC8" s="30"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -4238,7 +3996,7 @@
       <c r="AC9" s="30"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -4276,7 +4034,7 @@
       <c r="AC10" s="30"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -4316,7 +4074,7 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -4352,7 +4110,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -4390,7 +4148,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -4426,7 +4184,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -4464,7 +4222,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4504,7 +4262,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -4542,7 +4300,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -4580,7 +4338,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -4616,7 +4374,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -4652,7 +4410,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -4690,7 +4448,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -4728,7 +4486,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -4766,7 +4524,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -4806,7 +4564,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -4844,7 +4602,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -4882,7 +4640,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -4920,7 +4678,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -4958,7 +4716,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -4994,7 +4752,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5034,7 +4792,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5084,18 +4842,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5109,7 +4867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -5117,7 +4875,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -5125,7 +4883,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -5133,7 +4891,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -5141,7 +4899,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5149,7 +4907,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -5157,7 +4915,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -5165,7 +4923,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -5173,7 +4931,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -5181,7 +4939,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -5189,7 +4947,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -5197,7 +4955,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -5205,7 +4963,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -5213,7 +4971,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -5221,7 +4979,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -5229,7 +4987,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -5237,7 +4995,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5245,7 +5003,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5253,7 +5011,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5261,7 +5019,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5269,7 +5027,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5277,7 +5035,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5285,7 +5043,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5293,7 +5051,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5301,7 +5059,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5309,7 +5067,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5317,7 +5075,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5325,7 +5083,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5333,7 +5091,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5356,18 +5114,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5387,7 +5145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -5399,7 +5157,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -5409,7 +5167,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -5419,7 +5177,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -5431,7 +5189,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5441,7 +5199,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -5451,7 +5209,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -5461,7 +5219,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -5471,7 +5229,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -5481,7 +5239,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -5491,7 +5249,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -5501,7 +5259,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -5511,7 +5269,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -5523,7 +5281,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -5533,7 +5291,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -5543,7 +5301,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -5553,7 +5311,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5565,7 +5323,7 @@
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5577,7 +5335,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5587,7 +5345,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5597,7 +5355,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5607,7 +5365,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5619,7 +5377,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5629,7 +5387,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5639,7 +5397,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5649,7 +5407,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5661,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5671,7 +5429,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5681,7 +5439,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5707,18 +5465,18 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5735,7 +5493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -5744,7 +5502,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -5753,7 +5511,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -5764,7 +5522,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -5773,7 +5531,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5782,7 +5540,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -5791,7 +5549,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -5800,7 +5558,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -5809,7 +5567,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -5818,7 +5576,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -5829,7 +5587,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -5838,7 +5596,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -5847,7 +5605,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -5856,7 +5614,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -5865,7 +5623,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -5874,7 +5632,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -5883,7 +5641,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5892,7 +5650,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5901,7 +5659,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5910,7 +5668,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5921,7 +5679,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5930,7 +5688,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5939,7 +5697,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5950,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5959,7 +5717,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5968,7 +5726,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5977,7 +5735,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5986,7 +5744,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5995,7 +5753,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6020,18 +5778,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -6045,7 +5803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>113</v>
       </c>
@@ -6068,61 +5826,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="39"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="41"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="41"/>
     </row>
   </sheetData>
@@ -6142,18 +5900,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -6161,19 +5919,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -6196,18 +5954,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -6218,7 +5976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6229,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -6258,9 +6016,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -6293,7 +6051,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -6382,7 +6140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -6417,7 +6175,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>87</v>
       </c>
@@ -6468,18 +6226,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -6493,7 +6251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6501,7 +6259,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6509,7 +6267,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6517,7 +6275,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6543,12 +6301,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -6556,7 +6314,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -6570,7 +6328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6578,7 +6336,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6588,7 +6346,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6598,7 +6356,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6624,17 +6382,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -6648,7 +6406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -6658,7 +6416,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -6668,7 +6426,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -6694,18 +6452,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -6728,7 +6486,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6739,7 +6497,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6750,7 +6508,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6761,7 +6519,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6789,18 +6547,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -6814,7 +6572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -6822,7 +6580,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -6830,7 +6588,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -6838,7 +6596,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -6846,7 +6604,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6854,7 +6612,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -6862,7 +6620,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -6870,7 +6628,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -6878,7 +6636,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -6886,7 +6644,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -6894,7 +6652,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -6902,7 +6660,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -6910,7 +6668,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -6918,7 +6676,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -6944,18 +6702,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -6966,7 +6724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6977,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -7005,18 +6763,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -7036,7 +6794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -7056,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -7076,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -7096,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -7116,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -7136,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -7156,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -7176,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -7196,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -7216,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -7236,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -7256,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -7276,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -7296,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -7333,90 +7091,90 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
     <col min="4" max="12" width="9.33203125" style="1"/>
     <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -7439,18 +7197,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7470,7 +7228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7490,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -7510,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -7547,18 +7305,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7572,7 +7330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7580,7 +7338,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -7588,7 +7346,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -7613,18 +7371,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7632,7 +7390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>76</v>
       </c>
@@ -7655,24 +7413,24 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="53" width="9.33203125" style="1"/>
     <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period",#REF!, 2, FALSE),"s [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7833,7 +7591,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7996,7 +7754,7 @@
       <c r="BB3" s="58"/>
       <c r="BC3" s="58"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -8160,7 +7918,7 @@
       <c r="BC4" s="58"/>
       <c r="BD4" s="52"/>
     </row>
-    <row r="5" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -8324,10 +8082,10 @@
       <c r="BC5" s="57"/>
       <c r="BD5" s="51"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -8346,22 +8104,22 @@
   <sheetViews>
     <sheetView topLeftCell="AN1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -8522,7 +8280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -8735,7 +8493,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -8948,7 +8706,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -9161,7 +8919,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -9374,7 +9132,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -9587,7 +9345,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -9799,7 +9557,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -10012,7 +9770,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -10225,7 +9983,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -10438,7 +10196,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -10651,7 +10409,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -10864,7 +10622,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -11077,7 +10835,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -11290,7 +11048,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -11503,14 +11261,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="44"/>
       <c r="C17" s="45"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="45"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="45"/>
     </row>
   </sheetData>
@@ -11531,23 +11289,23 @@
       <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="9.33203125" style="1"/>
     <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -11708,7 +11466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -11901,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -12078,7 +11836,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -12239,10 +11997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="45"/>
     </row>
@@ -12264,15 +12022,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="75"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>148</v>
       </c>
@@ -12280,7 +12038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
         <v>89</v>
       </c>
@@ -12288,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
         <v>90</v>
       </c>
@@ -12296,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="80" t="s">
         <v>91</v>
       </c>
@@ -12320,19 +12078,19 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -12340,7 +12098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -12348,7 +12106,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -12356,7 +12114,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -12381,18 +12139,18 @@
       <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -12526,7 +12284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -12660,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -12794,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -12928,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -13062,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -13196,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -13330,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -13464,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -13598,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -13732,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -13866,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -14000,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -14134,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -14268,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -14402,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>76</v>
       </c>
@@ -14536,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -14670,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -14804,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>102</v>
       </c>
@@ -14938,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>103</v>
       </c>
@@ -15072,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>104</v>
       </c>
@@ -15206,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>105</v>
       </c>
@@ -15340,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>106</v>
       </c>
@@ -15474,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>107</v>
       </c>
@@ -15608,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -15742,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>109</v>
       </c>
@@ -15876,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>110</v>
       </c>
@@ -16010,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>111</v>
       </c>
@@ -16144,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>112</v>
       </c>
@@ -16278,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>113</v>
       </c>
@@ -16412,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -16546,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>115</v>
       </c>
@@ -16680,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>116</v>
       </c>
@@ -16814,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>117</v>
       </c>
@@ -16946,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>118</v>
       </c>
@@ -17080,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>119</v>
       </c>
@@ -17214,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>120</v>
       </c>
@@ -17348,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>121</v>
       </c>
@@ -17482,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>122</v>
       </c>
@@ -17616,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>123</v>
       </c>
@@ -17750,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>124</v>
       </c>
@@ -17884,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>125</v>
       </c>
@@ -18018,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>126</v>
       </c>
@@ -18152,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>127</v>
       </c>
@@ -18286,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>128</v>
       </c>
@@ -18420,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>129</v>
       </c>
@@ -18554,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>89</v>
       </c>
@@ -18688,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>90</v>
       </c>
@@ -18822,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>91</v>
       </c>
@@ -18956,7 +18714,7 @@
         <v>71429</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>86</v>
       </c>
@@ -19090,7 +18848,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>87</v>
       </c>
@@ -19224,7 +18982,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>93</v>
       </c>
@@ -19358,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>94</v>
       </c>
@@ -19492,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>95</v>
       </c>
@@ -19626,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>96</v>
       </c>
@@ -19777,19 +19535,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
@@ -19797,7 +19555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>80</v>
       </c>
@@ -19805,7 +19563,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>81</v>
       </c>
@@ -19813,7 +19571,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>82</v>
       </c>
@@ -19821,7 +19579,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>83</v>
       </c>
@@ -19830,7 +19588,7 @@
       </c>
       <c r="C6" s="44"/>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>84</v>
       </c>
@@ -19852,40 +19610,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
     <col min="4" max="12" width="9.33203125" style="1"/>
     <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
@@ -19893,52 +19651,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -19961,20 +19719,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -19982,7 +19740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -19990,7 +19748,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -19998,7 +19756,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -20006,7 +19764,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -20031,13 +19789,13 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
@@ -20061,7 +19819,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -20222,7 +19980,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -20435,7 +20193,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -20648,7 +20406,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -20667,19 +20425,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
@@ -20687,7 +20445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>80</v>
       </c>
@@ -20695,7 +20453,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>81</v>
       </c>
@@ -20703,7 +20461,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>82</v>
       </c>
@@ -20711,7 +20469,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>83</v>
       </c>
@@ -20719,7 +20477,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>84</v>
       </c>
@@ -20745,19 +20503,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -20765,7 +20523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -20774,7 +20532,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -20782,7 +20540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -20790,7 +20548,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -20815,20 +20573,20 @@
       <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -20962,7 +20720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>46</v>
       </c>
@@ -21096,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -21230,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -21364,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -21498,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -21632,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -21766,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -21900,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -22034,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -22168,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -22302,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -22436,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -22570,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -22704,7 +22462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -22838,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>76</v>
       </c>
@@ -22972,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -23106,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -23240,7 +22998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>102</v>
       </c>
@@ -23374,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>103</v>
       </c>
@@ -23508,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>104</v>
       </c>
@@ -23642,7 +23400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>105</v>
       </c>
@@ -23776,7 +23534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>106</v>
       </c>
@@ -23910,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>107</v>
       </c>
@@ -24044,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -24178,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>109</v>
       </c>
@@ -24312,7 +24070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>110</v>
       </c>
@@ -24446,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>111</v>
       </c>
@@ -24580,7 +24338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>112</v>
       </c>
@@ -24714,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>113</v>
       </c>
@@ -24846,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -24980,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>115</v>
       </c>
@@ -25114,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>116</v>
       </c>
@@ -25248,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>117</v>
       </c>
@@ -25382,7 +25140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>118</v>
       </c>
@@ -25516,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>119</v>
       </c>
@@ -25650,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>120</v>
       </c>
@@ -25784,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>121</v>
       </c>
@@ -25918,7 +25676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>122</v>
       </c>
@@ -26052,7 +25810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>123</v>
       </c>
@@ -26186,7 +25944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>124</v>
       </c>
@@ -26320,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>125</v>
       </c>
@@ -26454,7 +26212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>126</v>
       </c>
@@ -26588,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>127</v>
       </c>
@@ -26722,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>128</v>
       </c>
@@ -26856,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>129</v>
       </c>
@@ -26990,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>89</v>
       </c>
@@ -27124,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>90</v>
       </c>
@@ -27258,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>91</v>
       </c>
@@ -27392,7 +27150,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>86</v>
       </c>
@@ -27526,7 +27284,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>87</v>
       </c>
@@ -27660,7 +27418,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>93</v>
       </c>
@@ -27794,7 +27552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>94</v>
       </c>
@@ -27928,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>95</v>
       </c>
@@ -28062,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>96</v>
       </c>
@@ -28214,14 +27972,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -28229,7 +27987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -28237,7 +27995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -28245,7 +28003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -28269,14 +28027,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -28284,7 +28042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -28292,7 +28050,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -28300,7 +28058,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -28322,19 +28080,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
@@ -28342,7 +28100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -28350,7 +28108,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -28375,16 +28133,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Operational Cost [",VLOOKUP("currency", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Operational Cost [USD/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -28392,7 +28150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28400,7 +28158,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28408,7 +28166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -28416,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -28436,20 +28194,20 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Operational Cost [",VLOOKUP("currency", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Operational Cost [USD/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -28457,7 +28215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28465,7 +28223,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28473,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -28481,7 +28239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -28503,30 +28261,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
     <col min="6" max="13" width="9.33203125" style="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
@@ -28534,7 +28292,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -28555,18 +28313,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", "hour","]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -28574,7 +28332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -28582,7 +28340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -28590,7 +28348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -28598,7 +28356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -28606,7 +28364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -28614,7 +28372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -28622,7 +28380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -28630,7 +28388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -28638,7 +28396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -28646,7 +28404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -28654,7 +28412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -28662,7 +28420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -28670,7 +28428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -28678,7 +28436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>59</v>
       </c>
@@ -28686,7 +28444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
@@ -28694,7 +28452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -28702,7 +28460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -28710,7 +28468,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>86</v>
       </c>
@@ -28718,7 +28476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
@@ -28744,17 +28502,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -28774,7 +28532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -28794,7 +28552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28814,7 +28572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -28834,7 +28592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -28854,7 +28612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -28874,7 +28632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -28894,7 +28652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -28914,7 +28672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -28934,7 +28692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -28954,7 +28712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -28974,7 +28732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -28994,7 +28752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -29014,7 +28772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -29034,7 +28792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="72" t="s">
         <v>59</v>
       </c>
@@ -29054,7 +28812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -29074,7 +28832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -29094,7 +28852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -29131,17 +28889,17 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29149,7 +28907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29157,7 +28915,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29165,7 +28923,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29173,7 +28931,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29197,14 +28955,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29215,7 +28973,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29226,7 +28984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29237,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29248,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29275,17 +29033,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
@@ -29293,7 +29051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>97</v>
       </c>
@@ -29301,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>98</v>
       </c>
@@ -29309,7 +29067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>99</v>
       </c>
@@ -29317,7 +29075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>100</v>
       </c>
@@ -29341,17 +29099,17 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29359,7 +29117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29367,7 +29125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29375,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29383,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29407,22 +29165,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
@@ -29430,7 +29188,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>46</v>
       </c>
@@ -29438,7 +29196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -29446,7 +29204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -29454,7 +29212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -29462,7 +29220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -29470,7 +29228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -29478,7 +29236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -29486,7 +29244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -29494,7 +29252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -29502,7 +29260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -29510,7 +29268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -29518,7 +29276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -29526,7 +29284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -29534,7 +29292,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -29542,7 +29300,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
@@ -29550,7 +29308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>77</v>
       </c>
@@ -29558,7 +29316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>78</v>
       </c>
@@ -29583,17 +29341,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
@@ -29601,7 +29359,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>89</v>
       </c>
@@ -29609,7 +29367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -29617,7 +29375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -29642,14 +29400,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29657,7 +29415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29665,7 +29423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29673,7 +29431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29681,7 +29439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29702,17 +29460,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29720,7 +29478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29728,7 +29486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29736,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29744,7 +29502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29768,43 +29526,43 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
     <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -29824,17 +29582,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29842,7 +29600,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29850,7 +29608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29858,7 +29616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29866,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29883,18 +29641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E02D577-3E8C-444E-87B2-8DF0DDD275D2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
@@ -29902,7 +29660,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29910,7 +29668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29918,7 +29676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29926,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29947,33 +29705,33 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
     <col min="6" max="13" width="9.33203125" style="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -29999,19 +29757,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
     </row>
   </sheetData>
@@ -30030,30 +29788,30 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
     <col min="6" max="13" width="9.33203125" style="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -30061,7 +29819,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>

--- a/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
+++ b/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\models_extra\CM_module\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF59011-AF83-45F6-B50D-CC4BF40B499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B2CAF-D726-4E35-80B4-EB71BE87EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="46" activeTab="48" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="2685" yWindow="2250" windowWidth="21600" windowHeight="11205" tabRatio="834" firstSheet="27" activeTab="27" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>Freshwater Sources to Completions Pads Piping Arcs [-]</t>
   </si>
   <si>
-    <t>FreshwaterSources</t>
-  </si>
-  <si>
     <t>Treatment Sites to Completions Sites Piping Arcs [-]</t>
   </si>
   <si>
@@ -789,6 +786,9 @@
   </si>
   <si>
     <t xml:space="preserve">Table of production pad water quality </t>
+  </si>
+  <si>
+    <t>ExternalWaterSources</t>
   </si>
 </sst>
 </file>
@@ -1918,17 +1918,19 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1940,7 +1942,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -1954,7 +1956,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -1966,7 +1968,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -1980,7 +1982,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -1994,7 +1996,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2008,7 +2010,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2022,7 +2024,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2036,7 +2038,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2050,7 +2052,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2062,7 +2064,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2076,7 +2078,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2090,7 +2092,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2102,7 +2104,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2116,7 +2118,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2130,7 +2132,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2144,7 +2146,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2158,7 +2160,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2170,7 +2172,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2182,7 +2184,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2198,7 +2200,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2210,7 +2212,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2226,7 +2228,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2242,7 +2244,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2258,7 +2260,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2274,7 +2276,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2290,7 +2292,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2306,7 +2308,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2322,7 +2324,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2338,7 +2340,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2357,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2373,7 +2375,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2389,7 +2391,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2405,7 +2407,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2421,7 +2423,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2437,7 +2439,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2482,30 +2484,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -2513,20 +2515,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -2547,30 +2549,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
@@ -2578,137 +2580,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -2729,18 +2731,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -2830,7 +2832,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -2865,7 +2867,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -2970,7 +2972,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -3007,7 +3009,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="30"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3079,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -3112,7 +3114,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -3147,7 +3149,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -3182,7 +3184,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="30"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="AC14" s="30"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -3287,7 +3289,7 @@
       </c>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -3341,18 +3343,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -3442,7 +3444,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -3478,7 +3480,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -3514,7 +3516,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -3566,18 +3568,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -3591,7 +3593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -3599,7 +3601,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -3607,7 +3609,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -3632,18 +3634,18 @@
       <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -3733,7 +3735,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -3807,7 +3809,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="30"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -3844,7 +3846,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -3881,7 +3883,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -3918,7 +3920,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -3956,7 +3958,7 @@
       <c r="AC8" s="30"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -3996,7 +3998,7 @@
       <c r="AC9" s="30"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="AC10" s="30"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -4110,7 +4112,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -4148,7 +4150,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4262,7 +4264,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -4300,7 +4302,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -4338,7 +4340,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -4374,7 +4376,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -4448,7 +4450,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -4486,7 +4488,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -4524,7 +4526,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -4602,7 +4604,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -4640,7 +4642,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -4716,7 +4718,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -4752,7 +4754,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -4792,7 +4794,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4842,18 +4844,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -4875,7 +4877,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -4883,7 +4885,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -4891,7 +4893,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -4899,7 +4901,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -4907,7 +4909,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -4915,7 +4917,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -4923,7 +4925,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -4931,7 +4933,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -4939,7 +4941,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -4947,7 +4949,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -4955,7 +4957,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -4963,7 +4965,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -4971,7 +4973,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4979,7 +4981,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -4987,7 +4989,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -4995,7 +4997,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5003,7 +5005,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5011,7 +5013,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5019,7 +5021,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5027,7 +5029,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5043,7 +5045,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5075,7 +5077,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5083,7 +5085,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5114,18 +5116,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -5177,7 +5179,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -5189,7 +5191,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5199,7 +5201,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -5209,7 +5211,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -5219,7 +5221,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -5229,7 +5231,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -5239,7 +5241,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -5249,7 +5251,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -5259,7 +5261,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -5269,7 +5271,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -5281,7 +5283,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -5291,7 +5293,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -5301,7 +5303,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -5311,7 +5313,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5323,7 +5325,7 @@
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5335,7 +5337,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5345,7 +5347,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5355,7 +5357,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5365,7 +5367,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5387,7 +5389,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5407,7 +5409,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5429,7 +5431,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5439,7 +5441,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5465,18 +5467,18 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>102</v>
       </c>
@@ -5502,7 +5504,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>103</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>104</v>
       </c>
@@ -5522,7 +5524,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>105</v>
       </c>
@@ -5531,7 +5533,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>106</v>
       </c>
@@ -5540,7 +5542,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>107</v>
       </c>
@@ -5549,7 +5551,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>108</v>
       </c>
@@ -5558,7 +5560,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>109</v>
       </c>
@@ -5567,7 +5569,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>110</v>
       </c>
@@ -5576,7 +5578,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
@@ -5587,7 +5589,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>112</v>
       </c>
@@ -5596,7 +5598,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>113</v>
       </c>
@@ -5605,7 +5607,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>114</v>
       </c>
@@ -5614,7 +5616,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
@@ -5623,7 +5625,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>116</v>
       </c>
@@ -5632,7 +5634,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>117</v>
       </c>
@@ -5641,7 +5643,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>118</v>
       </c>
@@ -5650,7 +5652,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>119</v>
       </c>
@@ -5659,7 +5661,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>120</v>
       </c>
@@ -5668,7 +5670,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>121</v>
       </c>
@@ -5679,7 +5681,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>122</v>
       </c>
@@ -5688,7 +5690,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>123</v>
       </c>
@@ -5697,7 +5699,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>124</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>125</v>
       </c>
@@ -5717,7 +5719,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>126</v>
       </c>
@@ -5726,7 +5728,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>127</v>
       </c>
@@ -5735,7 +5737,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>128</v>
       </c>
@@ -5744,7 +5746,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>129</v>
       </c>
@@ -5753,7 +5755,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5778,18 +5780,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>136</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>113</v>
       </c>
@@ -5826,61 +5828,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="39"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="41"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="41"/>
     </row>
   </sheetData>
@@ -5900,38 +5902,38 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -5950,24 +5952,22 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>76</v>
@@ -5976,7 +5976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -6013,12 +6013,12 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -6051,9 +6051,9 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>102</v>
@@ -6140,7 +6140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -6175,7 +6175,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>87</v>
       </c>
@@ -6226,20 +6226,20 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>76</v>
@@ -6251,7 +6251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6301,22 +6301,22 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>89</v>
@@ -6328,7 +6328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6382,19 +6382,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>76</v>
@@ -6406,7 +6406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -6452,20 +6452,20 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>104</v>
@@ -6486,7 +6486,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -6519,7 +6519,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -6547,18 +6547,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -6596,7 +6596,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -6644,7 +6644,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -6698,24 +6698,24 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>76</v>
@@ -6724,7 +6724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -6763,18 +6763,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -7091,90 +7091,90 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
@@ -7197,18 +7197,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -7305,18 +7305,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -7371,18 +7371,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>76</v>
       </c>
@@ -7413,185 +7413,185 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.33203125" style="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.28515625" style="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period",#REF!, 2, FALSE),"s [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="BB3" s="58"/>
       <c r="BC3" s="58"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="BC4" s="58"/>
       <c r="BD4" s="52"/>
     </row>
-    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -8082,10 +8082,10 @@
       <c r="BC5" s="57"/>
       <c r="BD5" s="51"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -8104,183 +8104,183 @@
   <sheetViews>
     <sheetView topLeftCell="AN1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -11261,14 +11261,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
       <c r="C17" s="45"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="45"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="45"/>
     </row>
   </sheetData>
@@ -11289,184 +11289,184 @@
       <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
@@ -11997,10 +11997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="45"/>
     </row>
@@ -12022,23 +12022,23 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="75"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>89</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>90</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>91</v>
       </c>
@@ -12078,27 +12078,27 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -12139,20 +12139,20 @@
       <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>102</v>
@@ -12284,7 +12284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>76</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>102</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>103</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>104</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>105</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>106</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>107</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>109</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>110</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>111</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>112</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>113</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>115</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>116</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>117</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>118</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>119</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>120</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>121</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>122</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>123</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>124</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>125</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>126</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>127</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>128</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>129</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>89</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>90</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>91</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>71429</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>86</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>87</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>93</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>94</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>95</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>96</v>
       </c>
@@ -19535,27 +19535,27 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>80</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>81</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>82</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>83</v>
       </c>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="C6" s="44"/>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>84</v>
       </c>
@@ -19610,40 +19610,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.44140625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
@@ -19651,52 +19651,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -19719,28 +19719,28 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -19764,7 +19764,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -19786,16 +19786,16 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
@@ -19813,174 +19813,174 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BA2" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -20425,27 +20425,27 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>80</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>81</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>82</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>83</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>84</v>
       </c>
@@ -20503,27 +20503,27 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -20573,22 +20573,22 @@
       <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>102</v>
@@ -20720,7 +20720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>46</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>76</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>102</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>103</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>104</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>105</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>106</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>107</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>109</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>110</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>111</v>
       </c>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>112</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>113</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>115</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>116</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>117</v>
       </c>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>118</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>119</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>120</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>121</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>122</v>
       </c>
@@ -25810,7 +25810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>123</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>124</v>
       </c>
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>125</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>126</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>127</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>128</v>
       </c>
@@ -26614,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>129</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>89</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>90</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>91</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>86</v>
       </c>
@@ -27284,7 +27284,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>87</v>
       </c>
@@ -27418,7 +27418,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>93</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>94</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>95</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>96</v>
       </c>
@@ -27972,22 +27972,22 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -27995,7 +27995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -28003,7 +28003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -28027,22 +28027,22 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -28080,27 +28080,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>86</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -28133,24 +28133,24 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Operational Cost [",VLOOKUP("currency", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Operational Cost [USD/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -28194,28 +28194,28 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Beneficial Reuse Operational Cost [",VLOOKUP("currency", [1]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Beneficial Reuse Operational Cost [USD/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28223,7 +28223,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -28261,30 +28261,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
@@ -28292,7 +28292,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
@@ -28313,26 +28313,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="e">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", "hour","]")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
@@ -28340,7 +28340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -28388,7 +28388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -28412,7 +28412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>59</v>
       </c>
@@ -28444,7 +28444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
@@ -28452,7 +28452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -28460,7 +28460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>78</v>
       </c>
@@ -28468,7 +28468,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>86</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
@@ -28502,19 +28502,19 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>80</v>
@@ -28532,7 +28532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -28592,7 +28592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -28612,7 +28612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -28632,7 +28632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -28672,7 +28672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -28732,7 +28732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -28752,7 +28752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -28792,7 +28792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
         <v>59</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -28852,7 +28852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -28889,25 +28889,25 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -28955,25 +28955,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -28984,7 +28984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29033,25 +29033,25 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>97</v>
       </c>
@@ -29059,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>98</v>
       </c>
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>99</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>100</v>
       </c>
@@ -29099,25 +29099,25 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29133,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29141,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29165,30 +29165,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>46</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -29220,7 +29220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
@@ -29228,7 +29228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
@@ -29252,7 +29252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>54</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>55</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>58</v>
       </c>
@@ -29292,7 +29292,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>77</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>78</v>
       </c>
@@ -29341,25 +29341,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>89</v>
       </c>
@@ -29367,7 +29367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -29375,7 +29375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
@@ -29400,22 +29400,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29431,7 +29431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>95</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>96</v>
       </c>
@@ -29460,25 +29460,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29494,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29502,7 +29502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29526,43 +29526,43 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -29582,25 +29582,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29608,7 +29608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29624,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29645,22 +29645,22 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>93</v>
       </c>
@@ -29668,7 +29668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>94</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>95</v>
       </c>
@@ -29684,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>96</v>
       </c>
@@ -29704,34 +29704,32 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -29757,19 +29755,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
     </row>
   </sheetData>
@@ -29788,30 +29786,30 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -29819,7 +29817,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>

--- a/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
+++ b/pareto/models_extra/CM_module/case_studies/CM_large_permian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshb11/main/Grad_Research/CM/project-pareto/pareto/case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshb11/main/Grad_Research/CM/project-pareto/pareto/models_extra/CM_module/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98797434-9313-C348-ABDA-34D85CDFBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2C2DE-52E2-394D-A929-1457A880F4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="51" activeTab="60" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="3480" yWindow="2040" windowWidth="30240" windowHeight="17620" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -77,6 +77,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId62"/>
+    <externalReference r:id="rId63"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1858,6 +1859,209 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="WaterQualityComponents"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="FNA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="InitialStorageLevel"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="StorageCost"/>
+      <sheetName val="StorageWithdrawalRevenue"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="BeneficialReuseCost"/>
+      <sheetName val="BeneficialReuseRevenue"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="MinTreatmentFlow"/>
+      <sheetName val="MinResidualQuality"/>
+      <sheetName val="ComponentPrice"/>
+      <sheetName val="ComponentTreatment"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>kbbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2160,7 +2364,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6691,7 +6895,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7651,8 +7855,8 @@
   </sheetPr>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7667,9 +7871,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period",#REF!, 2, FALSE),"s [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", [2]Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Completions Water Demand for Completions Sites over weeks [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8344,7 +8548,7 @@
   </sheetPr>
   <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8356,9 +8560,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Production Rate Forecasts by Pads [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11527,9 +11731,7 @@
   </sheetPr>
   <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BB10" sqref="BB10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11542,9 +11744,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Flowback Rate Forecasts by Pads [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -12316,9 +12518,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12327,9 +12527,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Storage Capacity [kbbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -12377,9 +12577,7 @@
   </sheetPr>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="T1" zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
-    </sheetView>
+    <sheetView showZeros="0" zoomScale="125" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12387,9 +12585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Pipeline Capacity between Sites [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
@@ -19773,9 +19971,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19784,9 +19980,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Disposal Capacity [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -19957,9 +20153,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19969,9 +20163,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Treatment Capacity [kbbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -20027,9 +20221,7 @@
   </sheetPr>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20038,9 +20230,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Freshwater Sourcing Availability [kbbl/day]</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>86</v>
@@ -20674,9 +20866,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Disposal Operational Cost [USD/kbbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -20741,9 +20933,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20752,9 +20942,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Treatment Operational Cost [USD/kbbl]</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -20811,8 +21001,8 @@
   </sheetPr>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+    <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20823,9 +21013,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Operational Cost between Sites [USD/kbbl]</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
@@ -28329,9 +28519,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", [2]Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", [2]Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Freshwater Souring Cost [USD/kbbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -28553,7 +28743,9 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28561,9 +28753,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="e">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", "hour","]")</f>
-        <v>#REF!</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", [2]Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29883,7 +30075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E02D577-3E8C-444E-87B2-8DF0DDD275D2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
